--- a/CLICKTOPAY/TokenizationCmc/API_BulkStatus/API CMC clicktopay-bulkstatus.xlsx
+++ b/CLICKTOPAY/TokenizationCmc/API_BulkStatus/API CMC clicktopay-bulkstatus.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="91">
   <si>
     <t xml:space="preserve">Request</t>
   </si>
@@ -302,8 +302,125 @@
 	},
 	"data": {
 		"body": {
-			"bulkPushReceiptID": "BLK00001",
-			"bulkStatus": "JOB_PENDING"
+                         "event": "nuevo”,
+                         "bulkPushReceiptID": "BLK00006",
+                         "status": "JOB_PENDING"
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
+    "metadata": {
+        "_messageType": "Response",
+        "_messageId": "TS1663865723413",
+        "_messageIdOrg": "TS1663865723413",
+        "_shortMessageId": "S1663865723413",
+        "_applicationId": "Tokenization",
+        "_serviceId": "bulkprovisionnotification",
+        "_datetime": "2025-05-21T21:37:17"
+    },
+    "data": {
+        "body": {
+            "code": "00",
+            "title": "Exito",
+            "detail": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Insercion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Exitosa"
+        }
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
+    "metadata": {
+        "_messageType": "Response",
+        "_messageId": "TS1663865723413",
+        "_messageIdOrg": "TS1663865723413",
+        "_shortMessageId": "S1663865723413",
+        "_applicationId": "Tokenization",
+        "_serviceId": "bulkprovisionnotification",
+        "_datetime": "2025-05-21T21:36:35"
+    },
+    "data": {
+        "body": {
+            "code": "05",
+            "title": "Error",
+            "detail":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Insercion Fallida"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">        }
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	"metadata": {
+		"_messageType": "Request",
+		"_datetime": "2025-05-21T00:00:35",
+		"_messageIdOrg": "TS1663865723413",
+		"_applicationId": "Tokenization",
+		"_serviceId": "bulkprovisionnotification",
+		"_shortMessageId": "S1663865723413",
+		"_messageId": "TS1663865723413"
+	},
+	"data": {
+		"body": {
+                         "event": "modificar”,
+                         "bulkPushReceiptID": "BLK00006",
+                         "status": "JOB_PENDING"
 		}
 	}
 }</t>
@@ -323,13 +440,21 @@
         "body": {
             "code": "00",
             "title": "Exito",
-            "detail": "Actualizacion Exitosa"
+            "detail": "Acualizacion Exitosa"
         }
     }
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">{
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
     "metadata": {
         "_messageType": "Response",
         "_messageId": "TS1663865723413",
@@ -343,10 +468,30 @@
         "body": {
             "code": "05",
             "title": "Error",
-            "detail": "No existe registro con el bulkPushReceiptID ingresado"
+            "detail": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Acualizacion Fallida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"
         }
     }
 }</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">cardNumber</t>
@@ -392,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +649,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1656,7 +1807,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1676,9 +1827,12 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="21"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1695,6 +1849,10 @@
         <v>14</v>
       </c>
       <c r="N10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
@@ -5473,10 +5631,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5498,7 +5656,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="409.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="227.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
         <v>73</v>
       </c>
@@ -5514,16 +5672,36 @@
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-    </row>
+    <row r="5" customFormat="false" ht="194" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5553,7 +5731,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">CONCATENATE("""",B2,""": ","""data"", ")</f>
@@ -5562,7 +5740,7 @@
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">CONCATENATE("""",B3,""": ","""data"", ")</f>
@@ -5571,7 +5749,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">CONCATENATE("""",B4,""": ","""data"", ")</f>
@@ -5580,7 +5758,7 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">CONCATENATE("""",B5,""": ","""data"", ")</f>
@@ -5589,7 +5767,7 @@
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">CONCATENATE("""",B6,""": ","""data"", ")</f>
@@ -5598,7 +5776,7 @@
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">CONCATENATE("""",B7,""": ","""data"", ")</f>
@@ -5607,7 +5785,7 @@
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">CONCATENATE("""",B8,""": ","""data"", ")</f>
@@ -5616,7 +5794,7 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">CONCATENATE("""",B9,""": ","""data"", ")</f>
@@ -5625,7 +5803,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">CONCATENATE("""",B10,""": ","""data"", ")</f>
@@ -5634,7 +5812,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">CONCATENATE("""",B11,""": ","""data"", ")</f>
@@ -5643,7 +5821,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">CONCATENATE("""",B12,""": ","""data"", ")</f>
@@ -5652,7 +5830,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">CONCATENATE("""",B13,""": ","""data"", ")</f>
